--- a/spliced/falling/2023-03-25_18-03-39/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.4247342199087141</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.1972274780273441</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3113194406032568</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5224930047988898</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-39/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5706689357757579</v>
+        <v>-0.3537254333496094</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0343174934387197</v>
+        <v>0.2088937759399415</v>
       </c>
       <c r="C2" t="n">
-        <v>1.229419425129892</v>
+        <v>0.5035260319709778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.414066433906555</v>
+        <v>-0.4043011069297791</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8149144649505613</v>
+        <v>0.3229363560676575</v>
       </c>
       <c r="C3" t="n">
-        <v>2.08326780796051</v>
+        <v>0.4749223440885544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.309795856475833</v>
+        <v>-0.2195036411285398</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.58020401000977</v>
+        <v>0.2696369886398314</v>
       </c>
       <c r="C4" t="n">
-        <v>2.379897594451913</v>
+        <v>0.4450621306896209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.793576478958134</v>
+        <v>-0.5155707597732552</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.474893987178807</v>
+        <v>0.2643678188323975</v>
       </c>
       <c r="C5" t="n">
-        <v>6.666534841060649</v>
+        <v>0.5658968165516856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.682361364364626</v>
+        <v>-0.4721715450286855</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.100861430168151</v>
+        <v>0.2206716537475583</v>
       </c>
       <c r="C6" t="n">
-        <v>4.060978174209591</v>
+        <v>0.4629700779914848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.585742652416225</v>
+        <v>-0.2396689057350159</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2296125292777953</v>
+        <v>0.2092438936233521</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.877650618553173</v>
+        <v>0.5360905304551128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32.24908399581916</v>
+        <v>-0.5706689357757579</v>
       </c>
       <c r="B8" t="n">
-        <v>1.757101297378541</v>
+        <v>0.0343174934387197</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.40909767150881</v>
+        <v>1.229419425129892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38.13093996047955</v>
+        <v>-1.414066433906555</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9024124443530952</v>
+        <v>-0.8149144649505613</v>
       </c>
       <c r="C9" t="n">
-        <v>-14.60817745327944</v>
+        <v>2.08326780796051</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.90490770339963</v>
+        <v>-1.309795856475833</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8560311645269356</v>
+        <v>-1.58020401000977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1380237340927017</v>
+        <v>2.379897594451913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8446803092956439</v>
+        <v>-2.793576478958134</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1755323782563287</v>
+        <v>-3.474893987178807</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.320274218916883</v>
+        <v>6.666534841060649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.742444992065419</v>
+        <v>-4.682361364364626</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.150509834289533</v>
+        <v>-3.100861430168151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2485989332199101</v>
+        <v>4.060978174209591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7136693000793468</v>
+        <v>-3.585742652416225</v>
       </c>
       <c r="B13" t="n">
-        <v>1.730671703815462</v>
+        <v>-0.2296125292777953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3537724539637566</v>
+        <v>-1.877650618553173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.686201095581059</v>
+        <v>32.24908399581916</v>
       </c>
       <c r="B14" t="n">
-        <v>3.945523738861086</v>
+        <v>1.757101297378541</v>
       </c>
       <c r="C14" t="n">
-        <v>1.747492060065271</v>
+        <v>-14.40909767150881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.98302841186523</v>
+        <v>38.13093996047955</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490952953696242</v>
+        <v>0.9024124443530952</v>
       </c>
       <c r="C15" t="n">
-        <v>1.275657050311563</v>
+        <v>-14.60817745327944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3104100227355938</v>
+        <v>-7.90490770339963</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2889727950096068</v>
+        <v>-0.8560311645269356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5794646739959711</v>
+        <v>0.1380237340927017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04419469833374176</v>
+        <v>-0.8446803092956439</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8591627478599517</v>
+        <v>-0.1755323782563287</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3674164339900012</v>
+        <v>-2.320274218916883</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2313020229339599</v>
+        <v>1.742444992065419</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09604209661483762</v>
+        <v>-2.150509834289533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4004635512828826</v>
+        <v>0.2485989332199101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3572330474853509</v>
+        <v>-0.7136693000793468</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2147855013608939</v>
+        <v>1.730671703815462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8202954158186898</v>
+        <v>0.3537724539637566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2039585113525387</v>
+        <v>2.686201095581059</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3848990201950067</v>
+        <v>3.945523738861086</v>
       </c>
       <c r="C20" t="n">
-        <v>0.450774848461151</v>
+        <v>1.747492060065271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.98302841186523</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.490952953696242</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.275657050311563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3104100227355938</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2889727950096068</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5794646739959711</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.04419469833374176</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8591627478599517</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3674164339900012</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2313020229339599</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.09604209661483762</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4004635512828826</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.3572330474853509</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2147855013608939</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8202954158186898</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.2039585113525387</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3848990201950067</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.450774848461151</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.1377420425415036</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>0.2468021512031548</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>0.4247342199087141</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1972274780273441</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3113194406032568</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5224930047988898</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.2138409614562988</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2108606994152066</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.46574055776</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.09080266952514603</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2757070064544683</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4601370841264726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.04834830760955861</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3611972928047176</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5197352617979051</v>
       </c>
     </row>
   </sheetData>
